--- a/Projects/PERNODUS_SAND/Data/Pernod_US KPI_PS v0.1.xlsx
+++ b/Projects/PERNODUS_SAND/Data/Pernod_US KPI_PS v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="Base Measurement" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Eye Level" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Questions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Sheet11" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="194">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -667,6 +668,9 @@
       </rPr>
       <t xml:space="preserve"> 1,2,3,... etc.?</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelves</t>
   </si>
 </sst>
 </file>
@@ -1362,6 +1366,89 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="56" zoomScaleNormal="56" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -3970,8 +4057,8 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4263,14 +4350,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7125506072874"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="166.910931174089"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>

--- a/Projects/PERNODUS_SAND/Data/Pernod_US KPI_PS v0.1.xlsx
+++ b/Projects/PERNODUS_SAND/Data/Pernod_US KPI_PS v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
     <sheet name="Base Measurement" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Eye Level" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Questions" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Sheet11" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Shelves" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="206">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -480,6 +480,9 @@
     <t xml:space="preserve">Need to the Sub-Categories</t>
   </si>
   <si>
+    <t xml:space="preserve">KPI LEVEL 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">param</t>
   </si>
   <si>
@@ -492,6 +495,9 @@
     <t xml:space="preserve">list</t>
   </si>
   <si>
+    <t xml:space="preserve">PRESENCE_SUB_BRAND</t>
+  </si>
+  <si>
     <t xml:space="preserve">sub_brand</t>
   </si>
   <si>
@@ -501,10 +507,16 @@
     <t xml:space="preserve">JAMESON REG, JAMESON SLCT RSRV BLK BRL, JAMESON CASKMATES IPA EDTN, JAMESON CASKMATES STOUT EDTN</t>
   </si>
   <si>
+    <t xml:space="preserve">PRESENCE_TEMPLATE_NAME</t>
+  </si>
+  <si>
     <t xml:space="preserve">template_name</t>
   </si>
   <si>
     <t xml:space="preserve">Lock Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESENCE_TEMPLATE_NAME_BRANDS</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -519,49 +531,58 @@
 Brand = Avion, Redbreast</t>
   </si>
   <si>
+    <t xml:space="preserve">ADJACENCY_SUB_CATEGORY</t>
+  </si>
+  <si>
     <t xml:space="preserve">sub_category</t>
   </si>
   <si>
-    <t xml:space="preserve">Vodka</t>
+    <t xml:space="preserve">VODKA</t>
   </si>
   <si>
     <t xml:space="preserve">REMAINING WHISKEY, CANADIAN WHISKEY</t>
   </si>
   <si>
-    <t xml:space="preserve">Irish Whiskey</t>
+    <t xml:space="preserve">IRISH WHISKEY</t>
   </si>
   <si>
     <t xml:space="preserve">CORDIALS &amp; PROPRIETARY LIQUEUR</t>
   </si>
   <si>
-    <t xml:space="preserve">Rum</t>
+    <t xml:space="preserve">RUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADJACENCY_BRAND</t>
   </si>
   <si>
     <t xml:space="preserve">brand_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciroc</t>
+    <t xml:space="preserve">CIROC</t>
   </si>
   <si>
     <t xml:space="preserve">STOLICHNAYA</t>
   </si>
   <si>
-    <t xml:space="preserve">Cazadores Tequila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jameson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glenlivet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kahlua</t>
+    <t xml:space="preserve">CAZADORES TEQUILA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAMESON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLENLIVET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAHLUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADJACENCY_SUB_BRAND</t>
   </si>
   <si>
     <t xml:space="preserve">PLYMOUTH GIN, PLYMOUTH GIN NAVY STRENGTH</t>
@@ -570,19 +591,22 @@
     <t xml:space="preserve">MALIBU RUM CCNT</t>
   </si>
   <si>
-    <t xml:space="preserve">Beefeater Gin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolut Citron, Absolut Lime, Absolut Reg, Absolut Mandrin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martell VS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martell Blue Swift VSOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glenlivet Founders Reserve</t>
+    <t xml:space="preserve">BEEFEATER GIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABSOLUT CITRON, ABSOLUT LIME, ABSOLUT REG, ABSOLUT MANDRIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTELL VS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTELL BLUE SWIFT VSOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLENLIVET FOUNDERS RESERVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOCKING_BRAND</t>
   </si>
   <si>
     <t xml:space="preserve">ABSOLUT</t>
@@ -594,13 +618,10 @@
     <t xml:space="preserve">MALIBU</t>
   </si>
   <si>
-    <t xml:space="preserve">KAHLUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLENLIVET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRISH WHISKEY</t>
+    <t xml:space="preserve">BLOCKING_SUB_CATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOCKING_SIZE</t>
   </si>
   <si>
     <t xml:space="preserve">size</t>
@@ -609,19 +630,25 @@
     <t xml:space="preserve">20,50,100,200,250,296,355,375</t>
   </si>
   <si>
-    <t xml:space="preserve">VODKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMAINING WHISKEY, CANADIAN WHISKEY, IRISH WHISKEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUM</t>
+    <t xml:space="preserve">ANCHOR_SUB_CATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMAINING WHISKEY,CANADIAN WHISKEY,IRISH WHISKEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATEGORY_SPACE_CATEGORY</t>
   </si>
   <si>
     <t xml:space="preserve">category</t>
   </si>
   <si>
     <t xml:space="preserve">SPIRITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATEGORY_SPACE_TEMPLATE_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYE_LEVEL</t>
   </si>
   <si>
     <t xml:space="preserve">BRANDY/COGNAC, CANADIAN WHISKEY, CORDIALS &amp; PROPRIETARY LIQUEUR, GIN, IRISH WHISKEY, REMAINING WHISKEY, RUM, SCOTCH, TEQUILA, VODKA</t>
@@ -670,7 +697,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Shelves</t>
+    <t xml:space="preserve">num. of shelves min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num. of shelves max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num. ignored from top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num. ignored from bottom</t>
   </si>
 </sst>
 </file>
@@ -680,7 +716,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -792,12 +828,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <u val="single"/>
       <sz val="12"/>
@@ -884,7 +914,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1097,8 +1127,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1181,15 +1215,15 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="15:15 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.5910931174089"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1325,34 +1359,34 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="15:15 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1371,71 +1405,117 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="56" zoomScaleNormal="56" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="15:15 C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="54" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" s="54" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="54" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="54" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="C7" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="54" t="n">
         <v>3</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1456,21 +1536,21 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="1" sqref="15:15 F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="98.1214574898785"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="101.550607287449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2516,21 +2596,21 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C50" activeCellId="1" sqref="15:15 C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="64.165991902834"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
@@ -3496,115 +3576,145 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="15:15 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.9878542510121"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="52.7044534412956"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="68.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="B3" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="16" t="s">
+    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="108.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3624,418 +3734,481 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="15:15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.2712550607287"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="63.3076923076923"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="G6" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="F18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="F19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="2" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="C21" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4055,117 +4228,138 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="15:15 A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.9797570850202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="99.2995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
+      <c r="C2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>176</v>
+      <c r="C3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>176</v>
+      <c r="C4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>176</v>
+      <c r="C5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>176</v>
+      <c r="C7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4184,65 +4378,77 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="15:15 D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.165991902834"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D1" s="10" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
+      <c r="C2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>185</v>
+      <c r="C4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4261,75 +4467,84 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="15:15 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="C2" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4347,52 +4562,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="15:15 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="166.910931174089"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="172.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="80.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43" t="s">
+    <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="43" t="s">
+      <c r="C2" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="F2" s="43" t="s">
         <v>121</v>
       </c>
     </row>
